--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H2">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J2">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N2">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O2">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P2">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q2">
-        <v>189.7883109628605</v>
+        <v>588.5087686421519</v>
       </c>
       <c r="R2">
-        <v>1708.094798665745</v>
+        <v>5296.578917779368</v>
       </c>
       <c r="S2">
-        <v>0.01419674835423759</v>
+        <v>0.03983758112013132</v>
       </c>
       <c r="T2">
-        <v>0.01419674835423758</v>
+        <v>0.0398375811201313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H3">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J3">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.96444</v>
       </c>
       <c r="O3">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P3">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q3">
-        <v>83.90421170682222</v>
+        <v>197.48116496284</v>
       </c>
       <c r="R3">
-        <v>755.1379053614</v>
+        <v>1777.33048466556</v>
       </c>
       <c r="S3">
-        <v>0.006276292641096999</v>
+        <v>0.0133679774169837</v>
       </c>
       <c r="T3">
-        <v>0.006276292641096998</v>
+        <v>0.01336797741698369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H4">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J4">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N4">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O4">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P4">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q4">
-        <v>249.0281436525</v>
+        <v>308.463663486458</v>
       </c>
       <c r="R4">
-        <v>2241.2532928725</v>
+        <v>2776.172971378122</v>
       </c>
       <c r="S4">
-        <v>0.01862806971947449</v>
+        <v>0.02088065101410028</v>
       </c>
       <c r="T4">
-        <v>0.01862806971947449</v>
+        <v>0.02088065101410028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H5">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J5">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N5">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O5">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P5">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q5">
-        <v>67.80536420166278</v>
+        <v>85.78200612023899</v>
       </c>
       <c r="R5">
-        <v>610.248277814965</v>
+        <v>772.0380550821509</v>
       </c>
       <c r="S5">
-        <v>0.005072049420508356</v>
+        <v>0.005806791350530532</v>
       </c>
       <c r="T5">
-        <v>0.005072049420508354</v>
+        <v>0.005806791350530529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H6">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J6">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N6">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O6">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P6">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q6">
-        <v>69.90894275648834</v>
+        <v>108.766760269297</v>
       </c>
       <c r="R6">
-        <v>629.180484808395</v>
+        <v>978.9008424236729</v>
       </c>
       <c r="S6">
-        <v>0.005229403554884277</v>
+        <v>0.007362684918696119</v>
       </c>
       <c r="T6">
-        <v>0.005229403554884276</v>
+        <v>0.007362684918696115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.60456166666667</v>
+        <v>74.386083</v>
       </c>
       <c r="H7">
-        <v>94.81368500000001</v>
+        <v>223.158249</v>
       </c>
       <c r="I7">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="J7">
-        <v>0.07491217735960554</v>
+        <v>0.1411183975603248</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N7">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O7">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P7">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q7">
-        <v>341.0236182841217</v>
+        <v>795.6978629344338</v>
       </c>
       <c r="R7">
-        <v>3069.212564557095</v>
+        <v>7161.280766409905</v>
       </c>
       <c r="S7">
-        <v>0.02550961366940383</v>
+        <v>0.05386271173988285</v>
       </c>
       <c r="T7">
-        <v>0.02550961366940382</v>
+        <v>0.05386271173988283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J8">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N8">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O8">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P8">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q8">
-        <v>610.8589959579512</v>
+        <v>804.7899276237306</v>
       </c>
       <c r="R8">
-        <v>5497.73096362156</v>
+        <v>7243.109348613576</v>
       </c>
       <c r="S8">
-        <v>0.04569412837671717</v>
+        <v>0.05447817557646262</v>
       </c>
       <c r="T8">
-        <v>0.04569412837671715</v>
+        <v>0.05447817557646261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J9">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.96444</v>
       </c>
       <c r="O9">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P9">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q9">
         <v>270.0568979187689</v>
@@ -1013,10 +1013,10 @@
         <v>2430.51208126892</v>
       </c>
       <c r="S9">
-        <v>0.02020108510175343</v>
+        <v>0.01828080421420488</v>
       </c>
       <c r="T9">
-        <v>0.02020108510175343</v>
+        <v>0.01828080421420487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J10">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N10">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O10">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P10">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q10">
-        <v>801.5302998645</v>
+        <v>421.8262541518171</v>
       </c>
       <c r="R10">
-        <v>7213.772698780499</v>
+        <v>3796.436287366354</v>
       </c>
       <c r="S10">
-        <v>0.05995692731413615</v>
+        <v>0.02855443880156065</v>
       </c>
       <c r="T10">
-        <v>0.05995692731413614</v>
+        <v>0.02855443880156064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J11">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N11">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O11">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P11">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q11">
-        <v>218.2406096911641</v>
+        <v>117.3075036013674</v>
       </c>
       <c r="R11">
-        <v>1964.165487220477</v>
+        <v>1055.767532412307</v>
       </c>
       <c r="S11">
-        <v>0.01632506765428323</v>
+        <v>0.007940828479925643</v>
       </c>
       <c r="T11">
-        <v>0.01632506765428322</v>
+        <v>0.00794082847992564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>305.170493</v>
       </c>
       <c r="I12">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J12">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N12">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O12">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P12">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q12">
-        <v>225.0112578801923</v>
+        <v>148.7393184080512</v>
       </c>
       <c r="R12">
-        <v>2025.101320921731</v>
+        <v>1338.653865672461</v>
       </c>
       <c r="S12">
-        <v>0.01683153292628577</v>
+        <v>0.01006852400263348</v>
       </c>
       <c r="T12">
-        <v>0.01683153292628577</v>
+        <v>0.01006852400263348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>305.170493</v>
       </c>
       <c r="I13">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450649</v>
       </c>
       <c r="J13">
-        <v>0.2411148358650363</v>
+        <v>0.1929804125450648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N13">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O13">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P13">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q13">
-        <v>1097.630006854066</v>
+        <v>1088.122487960316</v>
       </c>
       <c r="R13">
-        <v>9878.670061686589</v>
+        <v>9793.10239164284</v>
       </c>
       <c r="S13">
-        <v>0.08210609449186058</v>
+        <v>0.0736576414702776</v>
       </c>
       <c r="T13">
-        <v>0.08210609449186056</v>
+        <v>0.07365764147027758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H14">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J14">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N14">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O14">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P14">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q14">
-        <v>453.7154938747518</v>
+        <v>845.0526373980267</v>
       </c>
       <c r="R14">
-        <v>4083.439444872766</v>
+        <v>7605.47373658224</v>
       </c>
       <c r="S14">
-        <v>0.03393931195382715</v>
+        <v>0.05720365572597783</v>
       </c>
       <c r="T14">
-        <v>0.03393931195382714</v>
+        <v>0.05720365572597782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H15">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J15">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.96444</v>
       </c>
       <c r="O15">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P15">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q15">
-        <v>200.5847497119155</v>
+        <v>283.5675323467556</v>
       </c>
       <c r="R15">
-        <v>1805.26274740724</v>
+        <v>2552.1077911208</v>
       </c>
       <c r="S15">
-        <v>0.01500435512024262</v>
+        <v>0.01919537171716869</v>
       </c>
       <c r="T15">
-        <v>0.01500435512024262</v>
+        <v>0.01919537171716868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H16">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J16">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N16">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O16">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P16">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q16">
-        <v>595.3365969314999</v>
+        <v>442.9297340328845</v>
       </c>
       <c r="R16">
-        <v>5358.0293723835</v>
+        <v>3986.36760629596</v>
       </c>
       <c r="S16">
-        <v>0.04453300527216668</v>
+        <v>0.02998298436702236</v>
       </c>
       <c r="T16">
-        <v>0.04453300527216668</v>
+        <v>0.02998298436702235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H17">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I17">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J17">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N17">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O17">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P17">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q17">
-        <v>162.0982037831354</v>
+        <v>123.1762624037978</v>
       </c>
       <c r="R17">
-        <v>1458.883834048219</v>
+        <v>1108.58636163418</v>
       </c>
       <c r="S17">
-        <v>0.01212544332213078</v>
+        <v>0.008338098949498657</v>
       </c>
       <c r="T17">
-        <v>0.01212544332213078</v>
+        <v>0.008338098949498652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H18">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I18">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J18">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N18">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O18">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P18">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q18">
-        <v>167.1271024443063</v>
+        <v>156.1805745713489</v>
       </c>
       <c r="R18">
-        <v>1504.143921998757</v>
+        <v>1405.62517114214</v>
       </c>
       <c r="S18">
-        <v>0.01250162038187381</v>
+        <v>0.0105722406196773</v>
       </c>
       <c r="T18">
-        <v>0.01250162038187381</v>
+        <v>0.0105722406196773</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>75.55512366666666</v>
+        <v>106.8126066666667</v>
       </c>
       <c r="H19">
-        <v>226.665371</v>
+        <v>320.43782</v>
       </c>
       <c r="I19">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071157</v>
       </c>
       <c r="J19">
-        <v>0.179088034323661</v>
+        <v>0.2026349995071156</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N19">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O19">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P19">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q19">
-        <v>815.2646419990195</v>
+        <v>1142.559998207231</v>
       </c>
       <c r="R19">
-        <v>7337.381777991177</v>
+        <v>10283.03998386508</v>
       </c>
       <c r="S19">
-        <v>0.06098429827342002</v>
+        <v>0.07734264812777084</v>
       </c>
       <c r="T19">
-        <v>0.06098429827342</v>
+        <v>0.07734264812777081</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H20">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J20">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N20">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O20">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P20">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q20">
-        <v>291.1987552735325</v>
+        <v>362.5063738116507</v>
       </c>
       <c r="R20">
-        <v>2620.788797461792</v>
+        <v>3262.557364304856</v>
       </c>
       <c r="S20">
-        <v>0.02178256094230455</v>
+        <v>0.02453893271056339</v>
       </c>
       <c r="T20">
-        <v>0.02178256094230455</v>
+        <v>0.02453893271056337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H21">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J21">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.96444</v>
       </c>
       <c r="O21">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P21">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q21">
-        <v>128.7371276306622</v>
+        <v>121.6433549018356</v>
       </c>
       <c r="R21">
-        <v>1158.63414867596</v>
+        <v>1094.79019411652</v>
       </c>
       <c r="S21">
-        <v>0.009629932399669907</v>
+        <v>0.008234332735275586</v>
       </c>
       <c r="T21">
-        <v>0.009629932399669904</v>
+        <v>0.008234332735275582</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H22">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I22">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J22">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N22">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O22">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P22">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q22">
-        <v>382.0924749885</v>
+        <v>190.0057400353305</v>
       </c>
       <c r="R22">
-        <v>3438.8322748965</v>
+        <v>1710.051660317974</v>
       </c>
       <c r="S22">
-        <v>0.02858169024182455</v>
+        <v>0.01286194783369606</v>
       </c>
       <c r="T22">
-        <v>0.02858169024182454</v>
+        <v>0.01286194783369605</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H23">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I23">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J23">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N23">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O23">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P23">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q23">
-        <v>104.0361103179668</v>
+        <v>52.83952531189078</v>
       </c>
       <c r="R23">
-        <v>936.324992861701</v>
+        <v>475.555727807017</v>
       </c>
       <c r="S23">
-        <v>0.007782220466817383</v>
+        <v>0.003576835194517968</v>
       </c>
       <c r="T23">
-        <v>0.00778222046681738</v>
+        <v>0.003576835194517966</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H24">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I24">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J24">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N24">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O24">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P24">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q24">
-        <v>107.2637034910003</v>
+        <v>66.9975469480879</v>
       </c>
       <c r="R24">
-        <v>965.373331419003</v>
+        <v>602.977922532791</v>
       </c>
       <c r="S24">
-        <v>0.008023654345621327</v>
+        <v>0.004535225902499985</v>
       </c>
       <c r="T24">
-        <v>0.008023654345621325</v>
+        <v>0.004535225902499982</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.49196966666667</v>
+        <v>45.81992766666667</v>
       </c>
       <c r="H25">
-        <v>145.475909</v>
+        <v>137.459783</v>
       </c>
       <c r="I25">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477767</v>
       </c>
       <c r="J25">
-        <v>0.114940339008634</v>
+        <v>0.08692532941477765</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N25">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O25">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P25">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q25">
-        <v>523.2443065613537</v>
+        <v>490.1295652867891</v>
       </c>
       <c r="R25">
-        <v>4709.198759052183</v>
+        <v>4411.166087581102</v>
       </c>
       <c r="S25">
-        <v>0.03914028061239627</v>
+        <v>0.03317805503822469</v>
       </c>
       <c r="T25">
-        <v>0.03914028061239626</v>
+        <v>0.03317805503822468</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H26">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I26">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J26">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N26">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O26">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P26">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q26">
-        <v>561.564616200501</v>
+        <v>788.7281562527947</v>
       </c>
       <c r="R26">
-        <v>5054.081545804508</v>
+        <v>7098.553406275153</v>
       </c>
       <c r="S26">
-        <v>0.04200675742565954</v>
+        <v>0.05339091544710382</v>
       </c>
       <c r="T26">
-        <v>0.04200675742565953</v>
+        <v>0.0533909154471038</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H27">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I27">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J27">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.96444</v>
       </c>
       <c r="O27">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P27">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q27">
-        <v>248.2641644561956</v>
+        <v>264.6671781886489</v>
       </c>
       <c r="R27">
-        <v>2234.37748010576</v>
+        <v>2382.00460369784</v>
       </c>
       <c r="S27">
-        <v>0.01857092172999726</v>
+        <v>0.01791596105739206</v>
       </c>
       <c r="T27">
-        <v>0.01857092172999726</v>
+        <v>0.01791596105739206</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H28">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I28">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J28">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N28">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O28">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P28">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q28">
-        <v>736.8493518060002</v>
+        <v>413.4075642305232</v>
       </c>
       <c r="R28">
-        <v>6631.644166254001</v>
+        <v>3720.668078074708</v>
       </c>
       <c r="S28">
-        <v>0.05511859381381997</v>
+        <v>0.02798455733073976</v>
       </c>
       <c r="T28">
-        <v>0.05511859381381996</v>
+        <v>0.02798455733073976</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H29">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I29">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J29">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N29">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O29">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P29">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q29">
-        <v>200.6292860243285</v>
+        <v>114.9663133872904</v>
       </c>
       <c r="R29">
-        <v>1805.663574218956</v>
+        <v>1034.696820485614</v>
       </c>
       <c r="S29">
-        <v>0.01500768657314794</v>
+        <v>0.00778234765510099</v>
       </c>
       <c r="T29">
-        <v>0.01500768657314793</v>
+        <v>0.007782347655100987</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H30">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I30">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J30">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N30">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O30">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P30">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q30">
-        <v>206.8535644205854</v>
+        <v>145.7708208608802</v>
       </c>
       <c r="R30">
-        <v>1861.682079785268</v>
+        <v>1311.937387747922</v>
       </c>
       <c r="S30">
-        <v>0.01547328170716896</v>
+        <v>0.00986757922807526</v>
       </c>
       <c r="T30">
-        <v>0.01547328170716896</v>
+        <v>0.009867579228075254</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>93.51473466666668</v>
+        <v>99.69332866666667</v>
       </c>
       <c r="H31">
-        <v>280.544204</v>
+        <v>299.079986</v>
       </c>
       <c r="I31">
-        <v>0.2216576348367576</v>
+        <v>0.1891289636650823</v>
       </c>
       <c r="J31">
-        <v>0.2216576348367575</v>
+        <v>0.1891289636650822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N31">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O31">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P31">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q31">
-        <v>1009.054753401039</v>
+        <v>1066.406044916854</v>
       </c>
       <c r="R31">
-        <v>9081.492780609349</v>
+        <v>9597.654404251683</v>
       </c>
       <c r="S31">
-        <v>0.07548039358696391</v>
+        <v>0.07218760294667037</v>
       </c>
       <c r="T31">
-        <v>0.07548039358696389</v>
+        <v>0.07218760294667034</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H32">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I32">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J32">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.005092333333333</v>
+        <v>7.911544</v>
       </c>
       <c r="N32">
-        <v>18.015277</v>
+        <v>23.734632</v>
       </c>
       <c r="O32">
-        <v>0.189511890517987</v>
+        <v>0.282298990130622</v>
       </c>
       <c r="P32">
-        <v>0.1895118905179869</v>
+        <v>0.2822989901306219</v>
       </c>
       <c r="Q32">
-        <v>426.3512629384073</v>
+        <v>780.7333775355521</v>
       </c>
       <c r="R32">
-        <v>3837.161366445665</v>
+        <v>7026.600397819969</v>
       </c>
       <c r="S32">
-        <v>0.03189238346524099</v>
+        <v>0.05284972955038302</v>
       </c>
       <c r="T32">
-        <v>0.03189238346524099</v>
+        <v>0.052849729550383</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H33">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I33">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J33">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.96444</v>
       </c>
       <c r="O33">
-        <v>0.08378200797673421</v>
+        <v>0.09472880678983904</v>
       </c>
       <c r="P33">
-        <v>0.0837820079767342</v>
+        <v>0.09472880678983901</v>
       </c>
       <c r="Q33">
-        <v>188.4871963166133</v>
+        <v>261.9844344491734</v>
       </c>
       <c r="R33">
-        <v>1696.38476684952</v>
+        <v>2357.85991004256</v>
       </c>
       <c r="S33">
-        <v>0.01409942098397399</v>
+        <v>0.01773435964881413</v>
       </c>
       <c r="T33">
-        <v>0.01409942098397399</v>
+        <v>0.01773435964881412</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H34">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I34">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J34">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.8795</v>
+        <v>4.146792666666667</v>
       </c>
       <c r="N34">
-        <v>23.6385</v>
+        <v>12.440378</v>
       </c>
       <c r="O34">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="P34">
-        <v>0.2486654423359372</v>
+        <v>0.1479654770397623</v>
       </c>
       <c r="Q34">
-        <v>559.4309945369999</v>
+        <v>409.2171445404747</v>
       </c>
       <c r="R34">
-        <v>5034.878950833</v>
+        <v>3682.954300864272</v>
       </c>
       <c r="S34">
-        <v>0.04184715597451537</v>
+        <v>0.02770089769264317</v>
       </c>
       <c r="T34">
-        <v>0.04184715597451537</v>
+        <v>0.02770089769264317</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H35">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I35">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J35">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.145429666666667</v>
+        <v>1.153199666666667</v>
       </c>
       <c r="N35">
-        <v>6.436289</v>
+        <v>3.459599</v>
       </c>
       <c r="O35">
-        <v>0.0677066079145008</v>
+        <v>0.04114836513820436</v>
       </c>
       <c r="P35">
-        <v>0.06770660791450078</v>
+        <v>0.04114836513820435</v>
       </c>
       <c r="Q35">
-        <v>152.3218290668847</v>
+        <v>113.8009812913307</v>
       </c>
       <c r="R35">
-        <v>1370.896461601962</v>
+        <v>1024.208831621976</v>
       </c>
       <c r="S35">
-        <v>0.01139414047761311</v>
+        <v>0.007703463508630576</v>
       </c>
       <c r="T35">
-        <v>0.01139414047761311</v>
+        <v>0.007703463508630572</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H36">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I36">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J36">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.211989</v>
+        <v>1.462192333333333</v>
       </c>
       <c r="N36">
-        <v>6.635967</v>
+        <v>4.386577</v>
       </c>
       <c r="O36">
-        <v>0.0698071226762139</v>
+        <v>0.05217381323755993</v>
       </c>
       <c r="P36">
-        <v>0.06980712267621389</v>
+        <v>0.05217381323755992</v>
       </c>
       <c r="Q36">
-        <v>157.047427650854</v>
+        <v>144.2932452894053</v>
       </c>
       <c r="R36">
-        <v>1413.426848857686</v>
+        <v>1298.639207604648</v>
       </c>
       <c r="S36">
-        <v>0.01174762976037975</v>
+        <v>0.009767558565977788</v>
       </c>
       <c r="T36">
-        <v>0.01174762976037975</v>
+        <v>0.009767558565977785</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>70.99828599999999</v>
+        <v>98.68280800000001</v>
       </c>
       <c r="H37">
-        <v>212.994858</v>
+        <v>296.048424</v>
       </c>
       <c r="I37">
-        <v>0.1682869786063055</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="J37">
-        <v>0.1682869786063056</v>
+        <v>0.1872118973076348</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.790329</v>
+        <v>10.69686466666666</v>
       </c>
       <c r="N37">
-        <v>32.370987</v>
+        <v>32.090594</v>
       </c>
       <c r="O37">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640125</v>
       </c>
       <c r="P37">
-        <v>0.3405269285786269</v>
+        <v>0.3816845476640124</v>
       </c>
       <c r="Q37">
-        <v>766.0948643760939</v>
+        <v>1055.596642102651</v>
       </c>
       <c r="R37">
-        <v>6894.853779384845</v>
+        <v>9500.369778923856</v>
       </c>
       <c r="S37">
-        <v>0.05730624794458233</v>
+        <v>0.07145588834118616</v>
       </c>
       <c r="T37">
-        <v>0.05730624794458233</v>
+        <v>0.07145588834118613</v>
       </c>
     </row>
   </sheetData>
